--- a/FinalWorkPass.xlsx
+++ b/FinalWorkPass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="WorkA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>Agency_Profile_Update</t>
   </si>
@@ -221,6 +221,108 @@
   </si>
   <si>
     <t>Duplicate</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Agency_Profile</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Alternative_Encounter</t>
+  </si>
+  <si>
+    <t>usp_etl_select_ASQ3</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Client_Discharge</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Client_Funding</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Clinical_IPV</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Course_Completion</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Dance</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Demographics</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Edinburgh</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Education_Registration</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Gad7</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Health_Habits</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Home_Visit_Encounter</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Infant_Birth</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Infant_Health</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Maternal_Health</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MN12MosInfant</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MN18MosToddler</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MN24MosToddler</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MN6MosInfant</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MNChildIntake</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MNPrimaryCaregiverClosure</t>
+  </si>
+  <si>
+    <t>usp_etl_select_MNPrimaryCaregiverIntake</t>
+  </si>
+  <si>
+    <t>usp_etl_select_New_Hire</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Tribal</t>
+  </si>
+  <si>
+    <t>usp_etl_select_PHQ9</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Referrals_To_NFP</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Relationships</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Star</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Telehealth</t>
+  </si>
+  <si>
+    <t>usp_etl_select_WeeklySupervision</t>
+  </si>
+  <si>
+    <t>Referrals_To_Services</t>
+  </si>
+  <si>
+    <t>usp_etl_select_Referrals_To_Services</t>
   </si>
 </sst>
 </file>
@@ -244,12 +346,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,9 +372,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,21 +656,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -578,7 +687,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,8 +697,14 @@
       <c r="C2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,8 +714,14 @@
       <c r="C3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -610,8 +731,14 @@
       <c r="C4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -621,8 +748,14 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -632,8 +765,14 @@
       <c r="C6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -643,488 +782,793 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f>SUM(B2:B55)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f>B56/60</f>
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>SUM(B2:B54)</f>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f>B55/60</f>
-        <v>8.8333333333333339</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A54">
-    <sortCondition ref="A2:A54"/>
+  <sortState ref="A2:E57">
+    <sortCondition ref="E2:E57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1139,14 +1583,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1157,7 +1601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1165,7 +1609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
